--- a/仕様/業務フロー/業務フローver1.3.xlsx
+++ b/仕様/業務フロー/業務フローver1.3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenya/Documents/GitHub/project_abroad/仕様/業務フロー/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ganng\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C63FDCE-5BA5-8349-9115-42A9DCCDCC6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2637F79-0E04-46FA-BD28-EFDD4FDDC31F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-10740" yWindow="12150" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="10" r:id="rId1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="145">
   <si>
     <t>業務フロー</t>
     <rPh sb="0" eb="2">
@@ -254,6 +254,13 @@
   </si>
   <si>
     <t>NO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>中村</t>
+    <rPh sb="0" eb="2">
+      <t>ナカムラ</t>
+    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -1991,20 +1998,6 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
-  <si>
-    <t>松尾</t>
-    <rPh sb="0" eb="2">
-      <t>マツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>松尾</t>
-    <rPh sb="0" eb="1">
-      <t>マツ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
 </sst>
 </file>
 
@@ -2284,7 +2277,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2596,6 +2589,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -5339,7 +5343,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="218097" y="6251767"/>
+          <a:off x="218097" y="6215762"/>
           <a:ext cx="4143657" cy="566841"/>
           <a:chOff x="44741" y="6478744"/>
           <a:chExt cx="4273607" cy="595563"/>
@@ -10241,8 +10245,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106896" y="6766438"/>
-          <a:ext cx="4747776" cy="527041"/>
+          <a:off x="106896" y="7142255"/>
+          <a:ext cx="4579306" cy="565918"/>
           <a:chOff x="106896" y="6939409"/>
           <a:chExt cx="4068141" cy="571750"/>
         </a:xfrm>
@@ -11581,8 +11585,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="106896" y="6914029"/>
-          <a:ext cx="4663541" cy="516482"/>
+          <a:off x="106896" y="7160974"/>
+          <a:ext cx="4663541" cy="540000"/>
           <a:chOff x="106896" y="6939409"/>
           <a:chExt cx="4068141" cy="571750"/>
         </a:xfrm>
@@ -14669,8 +14673,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13385" y="5890578"/>
-          <a:ext cx="4178089" cy="540000"/>
+          <a:off x="13385" y="6116797"/>
+          <a:ext cx="4074902" cy="571750"/>
           <a:chOff x="263417" y="7126034"/>
           <a:chExt cx="4186027" cy="565400"/>
         </a:xfrm>
@@ -21174,8 +21178,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="0" y="5098106"/>
-          <a:ext cx="4663541" cy="554287"/>
+          <a:off x="0" y="5320356"/>
+          <a:ext cx="4560354" cy="586037"/>
           <a:chOff x="106896" y="6939409"/>
           <a:chExt cx="4068141" cy="571750"/>
         </a:xfrm>
@@ -22514,8 +22518,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="297397" y="6960532"/>
-          <a:ext cx="4152047" cy="540000"/>
+          <a:off x="297397" y="7119282"/>
+          <a:ext cx="4101536" cy="554431"/>
           <a:chOff x="297397" y="6939409"/>
           <a:chExt cx="4040922" cy="571750"/>
         </a:xfrm>
@@ -24177,8 +24181,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="479204" y="5963497"/>
-          <a:ext cx="4192438" cy="1086444"/>
+          <a:off x="467728" y="6196840"/>
+          <a:ext cx="4043252" cy="1139999"/>
           <a:chOff x="362472" y="10816126"/>
           <a:chExt cx="4078217" cy="1161337"/>
         </a:xfrm>
@@ -25406,8 +25410,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="156261" y="5743734"/>
-          <a:ext cx="4178089" cy="535237"/>
+          <a:off x="156261" y="5997734"/>
+          <a:ext cx="4074902" cy="559050"/>
           <a:chOff x="263417" y="7126034"/>
           <a:chExt cx="4186027" cy="565400"/>
         </a:xfrm>
@@ -27495,21 +27499,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="125" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:I31"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="125" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="26" width="4.1640625" style="1" customWidth="1"/>
-    <col min="27" max="29" width="4.1640625" style="22" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="26" width="4.125" style="1" customWidth="1"/>
+    <col min="27" max="29" width="4.125" style="22" customWidth="1"/>
     <col min="30" max="33" width="4" style="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" ht="14">
+    <row r="1" spans="1:173" ht="12">
       <c r="A1" s="28"/>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -27742,7 +27746,7 @@
       </c>
       <c r="W3" s="95"/>
       <c r="X3" s="96" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y3" s="97"/>
       <c r="Z3" s="97"/>
@@ -27923,7 +27927,7 @@
       <c r="D9" s="38"/>
       <c r="E9" s="39"/>
       <c r="F9" s="98" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G9" s="99"/>
       <c r="H9" s="99"/>
@@ -27957,7 +27961,7 @@
       <c r="D10" s="110"/>
       <c r="E10" s="111"/>
       <c r="F10" s="115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G10" s="116"/>
       <c r="H10" s="116"/>
@@ -28523,7 +28527,7 @@
       <c r="Y27" s="43"/>
       <c r="Z27" s="45"/>
       <c r="AA27" s="50" t="s">
-        <v>144</v>
+        <v>21</v>
       </c>
       <c r="AB27" s="14"/>
       <c r="AC27" s="15"/>
@@ -28531,7 +28535,7 @@
     <row r="28" spans="1:29" ht="12.75" customHeight="1">
       <c r="A28" s="13"/>
       <c r="B28" s="41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C28" s="42"/>
       <c r="D28" s="42"/>
@@ -28543,7 +28547,7 @@
       <c r="H28" s="92"/>
       <c r="I28" s="93"/>
       <c r="J28" s="49" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K28" s="42"/>
       <c r="L28" s="42"/>
@@ -28562,7 +28566,7 @@
       <c r="Y28" s="43"/>
       <c r="Z28" s="45"/>
       <c r="AA28" s="50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AB28" s="14"/>
       <c r="AC28" s="15"/>
@@ -28570,7 +28574,7 @@
     <row r="29" spans="1:29" ht="12.75" customHeight="1">
       <c r="A29" s="13"/>
       <c r="B29" s="41" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C29" s="42"/>
       <c r="D29" s="42"/>
@@ -28582,7 +28586,7 @@
       <c r="H29" s="92"/>
       <c r="I29" s="93"/>
       <c r="J29" s="41" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K29" s="42"/>
       <c r="L29" s="42"/>
@@ -28601,31 +28605,31 @@
       <c r="Y29" s="43"/>
       <c r="Z29" s="45"/>
       <c r="AA29" s="50" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AB29" s="14"/>
       <c r="AC29" s="15"/>
     </row>
     <row r="30" spans="1:29" ht="12.75" customHeight="1">
       <c r="A30" s="13"/>
-      <c r="B30" s="41" t="s">
-        <v>142</v>
+      <c r="B30" s="157" t="s">
+        <v>143</v>
       </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="91">
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="158"/>
+      <c r="F30" s="159">
         <v>43726</v>
       </c>
-      <c r="G30" s="92"/>
-      <c r="H30" s="92"/>
-      <c r="I30" s="93"/>
-      <c r="J30" s="41" t="s">
-        <v>143</v>
+      <c r="G30" s="160"/>
+      <c r="H30" s="160"/>
+      <c r="I30" s="161"/>
+      <c r="J30" s="157" t="s">
+        <v>144</v>
       </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
-      <c r="M30" s="42"/>
+      <c r="K30" s="158"/>
+      <c r="L30" s="158"/>
+      <c r="M30" s="158"/>
       <c r="N30" s="42"/>
       <c r="O30" s="42"/>
       <c r="P30" s="44"/>
@@ -28639,9 +28643,7 @@
       <c r="X30" s="42"/>
       <c r="Y30" s="43"/>
       <c r="Z30" s="45"/>
-      <c r="AA30" s="50" t="s">
-        <v>145</v>
-      </c>
+      <c r="AA30" s="50"/>
       <c r="AB30" s="14"/>
       <c r="AC30" s="15"/>
     </row>
@@ -29058,13 +29060,13 @@
       <selection activeCell="O8" sqref="O8:AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -29146,7 +29148,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -29154,7 +29156,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -29199,7 +29201,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -29411,7 +29413,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P6" s="145"/>
       <c r="Q6" s="145"/>
@@ -29479,7 +29481,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -30641,11 +30643,11 @@
       <selection activeCell="O8" sqref="O8:AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="30" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -30727,7 +30729,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -30735,7 +30737,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -30780,7 +30782,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -30992,7 +30994,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -32250,16 +32252,16 @@
   <dimension ref="A1:FS63"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="V29" sqref="V29"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -32341,7 +32343,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -32349,7 +32351,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -32394,7 +32396,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -32606,7 +32608,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="144" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P6" s="145"/>
       <c r="Q6" s="145"/>
@@ -32674,7 +32676,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -32742,7 +32744,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
       <c r="O10" s="150" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
@@ -32810,7 +32812,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="152" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P12" s="153"/>
       <c r="Q12" s="153"/>
@@ -33041,7 +33043,7 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="13" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P19" s="16"/>
       <c r="R19" s="14"/>
@@ -33878,14 +33880,14 @@
       <selection activeCell="T40" sqref="T40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.125" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
@@ -33966,7 +33968,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -33974,7 +33976,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -34019,7 +34021,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -34231,7 +34233,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -34250,7 +34252,7 @@
       <c r="AD6" s="142"/>
       <c r="AE6" s="143"/>
     </row>
-    <row r="7" spans="1:175" ht="23" customHeight="1">
+    <row r="7" spans="1:175" ht="23.1" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -34299,7 +34301,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -35491,18 +35493,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69F61F79-1971-4966-8A33-6D09B0D420DE}">
   <dimension ref="A1:FS63"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="97" zoomScaleNormal="10" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="97" zoomScaleNormal="10" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="9.125" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.125" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
@@ -35583,7 +35585,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -35591,7 +35593,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -35636,7 +35638,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -35848,7 +35850,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -35867,7 +35869,7 @@
       <c r="AD6" s="142"/>
       <c r="AE6" s="143"/>
     </row>
-    <row r="7" spans="1:175" ht="23" customHeight="1">
+    <row r="7" spans="1:175" ht="23.1" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -35916,7 +35918,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -37108,20 +37110,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:FQ108"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="68" zoomScaleNormal="87" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="68" zoomScaleNormal="87" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="31" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="31" width="4.125" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" ht="17">
+    <row r="1" spans="1:173" ht="17.25">
       <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
@@ -37156,7 +37158,7 @@
       <c r="AD1" s="78"/>
       <c r="AE1" s="78"/>
     </row>
-    <row r="2" spans="1:173" ht="17">
+    <row r="2" spans="1:173" ht="17.25">
       <c r="A2" s="156"/>
       <c r="B2" s="156"/>
       <c r="C2" s="156"/>
@@ -37230,7 +37232,7 @@
     </row>
     <row r="4" spans="1:173" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -37246,7 +37248,7 @@
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
       <c r="O4" s="67" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -37283,7 +37285,7 @@
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
@@ -37463,7 +37465,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="70"/>
       <c r="R6" s="11"/>
@@ -37498,7 +37500,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="68"/>
       <c r="P7" s="71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="14"/>
@@ -37568,7 +37570,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Q9" s="71"/>
       <c r="R9" s="14"/>
@@ -37602,10 +37604,10 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="68" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q10" s="71"/>
       <c r="R10" s="14"/>
@@ -37627,10 +37629,10 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
       <c r="O11" s="68" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="P11" s="72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="71"/>
       <c r="R11" s="14"/>
@@ -37653,10 +37655,10 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14"/>
       <c r="O12" s="68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P12" s="72" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q12" s="71"/>
       <c r="R12" s="14"/>
@@ -37700,10 +37702,10 @@
       <c r="M14" s="14"/>
       <c r="N14" s="14"/>
       <c r="O14" s="68" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P14" s="72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q14" s="71"/>
       <c r="R14" s="23"/>
@@ -37738,7 +37740,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="68"/>
       <c r="P15" s="72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q15" s="71"/>
       <c r="R15" s="14"/>
@@ -37773,7 +37775,7 @@
       <c r="N16" s="14"/>
       <c r="O16" s="68"/>
       <c r="P16" s="72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q16" s="73"/>
       <c r="R16" s="14"/>
@@ -37808,7 +37810,7 @@
       <c r="N17" s="14"/>
       <c r="O17" s="68"/>
       <c r="P17" s="72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q17" s="71"/>
       <c r="R17" s="14"/>
@@ -37875,10 +37877,10 @@
       <c r="M19" s="14"/>
       <c r="N19" s="14"/>
       <c r="O19" s="68" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P19" s="72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q19" s="71"/>
       <c r="R19" s="14"/>
@@ -37913,7 +37915,7 @@
       <c r="N20" s="14"/>
       <c r="O20" s="68"/>
       <c r="P20" s="72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="73"/>
       <c r="R20" s="14"/>
@@ -37948,7 +37950,7 @@
       <c r="N21" s="14"/>
       <c r="O21" s="68"/>
       <c r="P21" s="72" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q21" s="71"/>
       <c r="R21" s="14"/>
@@ -37992,10 +37994,10 @@
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="68" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P23" s="72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q23" s="71"/>
       <c r="R23" s="14"/>
@@ -38018,7 +38020,7 @@
       <c r="N24" s="14"/>
       <c r="O24" s="68"/>
       <c r="P24" s="72" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q24" s="71"/>
       <c r="R24" s="14"/>
@@ -38041,7 +38043,7 @@
       <c r="N25" s="14"/>
       <c r="O25" s="68"/>
       <c r="P25" s="72" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q25" s="71"/>
       <c r="R25" s="14"/>
@@ -38064,7 +38066,7 @@
       <c r="N26" s="14"/>
       <c r="O26" s="68"/>
       <c r="P26" s="72" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q26" s="71"/>
       <c r="R26" s="14"/>
@@ -38119,10 +38121,10 @@
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="68" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P28" s="71" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q28" s="71"/>
       <c r="R28" s="14"/>
@@ -38157,7 +38159,7 @@
       <c r="N29" s="14"/>
       <c r="O29" s="68"/>
       <c r="P29" s="71" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q29" s="71"/>
       <c r="R29" s="14"/>
@@ -38224,10 +38226,10 @@
       <c r="M31" s="14"/>
       <c r="N31" s="14"/>
       <c r="O31" s="68" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P31" s="71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q31" s="71"/>
       <c r="R31" s="14"/>
@@ -38262,7 +38264,7 @@
       <c r="N32" s="14"/>
       <c r="O32" s="68"/>
       <c r="P32" s="71" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q32" s="71"/>
       <c r="R32" s="14"/>
@@ -38299,7 +38301,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="68"/>
       <c r="P33" s="71" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q33" s="71"/>
       <c r="R33" s="14"/>
@@ -39128,16 +39130,16 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="31" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="31" width="4.125" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" s="80" customFormat="1" ht="17">
+    <row r="1" spans="1:173" s="80" customFormat="1" ht="17.25">
       <c r="A1" s="155" t="s">
         <v>0</v>
       </c>
@@ -39172,7 +39174,7 @@
       <c r="AD1" s="79"/>
       <c r="AE1" s="79"/>
     </row>
-    <row r="2" spans="1:173" ht="17">
+    <row r="2" spans="1:173" ht="17.25">
       <c r="A2" s="156"/>
       <c r="B2" s="156"/>
       <c r="C2" s="156"/>
@@ -39246,7 +39248,7 @@
     </row>
     <row r="4" spans="1:173" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -39262,7 +39264,7 @@
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
       <c r="O4" s="67" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -39299,7 +39301,7 @@
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
@@ -39479,7 +39481,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="70"/>
       <c r="R6" s="11"/>
@@ -39514,7 +39516,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="68"/>
       <c r="P7" s="71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="14"/>
@@ -40064,13 +40066,13 @@
       <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -40152,7 +40154,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -40160,7 +40162,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -40205,7 +40207,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -40417,7 +40419,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -40485,7 +40487,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -40553,7 +40555,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="144" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
@@ -41682,13 +41684,13 @@
   <sheetViews>
     <sheetView zoomScale="108" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -41770,7 +41772,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -41778,7 +41780,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -41823,7 +41825,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -42035,7 +42037,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -42103,7 +42105,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -42122,7 +42124,7 @@
       <c r="AD8" s="145"/>
       <c r="AE8" s="146"/>
     </row>
-    <row r="9" spans="1:175" ht="28" customHeight="1">
+    <row r="9" spans="1:175" ht="27.95" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -42171,7 +42173,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="144" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
@@ -43300,13 +43302,13 @@
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="114" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -43388,7 +43390,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -43396,7 +43398,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -43441,7 +43443,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -43653,7 +43655,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -43721,7 +43723,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -43740,7 +43742,7 @@
       <c r="AD8" s="145"/>
       <c r="AE8" s="146"/>
     </row>
-    <row r="9" spans="1:175" ht="16" customHeight="1">
+    <row r="9" spans="1:175" ht="15.95" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -43789,7 +43791,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
       <c r="O10" s="151" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P10" s="151"/>
       <c r="Q10" s="151"/>
@@ -43857,7 +43859,7 @@
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
       <c r="O12" s="144" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P12" s="145"/>
       <c r="Q12" s="145"/>
@@ -44924,7 +44926,7 @@
       <selection activeCell="J41" sqref="J41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="2:12">
       <c r="H1" s="52"/>
@@ -44935,12 +44937,12 @@
     </row>
     <row r="2" spans="2:12">
       <c r="B2" s="123" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2" s="124"/>
       <c r="D2" s="125"/>
       <c r="E2" s="123" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F2" s="124"/>
       <c r="G2" s="125"/>
@@ -44968,7 +44970,7 @@
       <c r="C4" s="133"/>
       <c r="D4" s="134"/>
       <c r="E4" s="123" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="124"/>
       <c r="G4" s="125"/>
@@ -45048,7 +45050,7 @@
       <c r="C10" s="133"/>
       <c r="D10" s="134"/>
       <c r="E10" s="123" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F10" s="124"/>
       <c r="G10" s="125"/>
@@ -45180,7 +45182,7 @@
       <c r="C20" s="133"/>
       <c r="D20" s="134"/>
       <c r="E20" s="123" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F20" s="124"/>
       <c r="G20" s="125"/>
@@ -45299,7 +45301,7 @@
       <c r="C29" s="133"/>
       <c r="D29" s="134"/>
       <c r="E29" s="123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="124"/>
       <c r="G29" s="125"/>
@@ -45461,7 +45463,7 @@
       <c r="D42" s="60"/>
       <c r="E42" s="59"/>
       <c r="F42" s="60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G42" s="61"/>
     </row>
@@ -45524,18 +45526,18 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="31" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="31" width="4.125" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" ht="17">
+    <row r="1" spans="1:173" ht="17.25">
       <c r="A1" s="155" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="155"/>
       <c r="C1" s="155"/>
@@ -45568,7 +45570,7 @@
       <c r="AD1" s="78"/>
       <c r="AE1" s="78"/>
     </row>
-    <row r="2" spans="1:173" ht="17">
+    <row r="2" spans="1:173" ht="17.25">
       <c r="A2" s="156"/>
       <c r="B2" s="156"/>
       <c r="C2" s="156"/>
@@ -45642,7 +45644,7 @@
     </row>
     <row r="4" spans="1:173" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -45658,7 +45660,7 @@
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
       <c r="O4" s="67" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -45695,7 +45697,7 @@
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
@@ -45875,7 +45877,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="70"/>
       <c r="R6" s="11"/>
@@ -45910,7 +45912,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="68"/>
       <c r="P7" s="71" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="14"/>
@@ -45945,7 +45947,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="68"/>
       <c r="P8" s="71" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="14"/>
@@ -46012,10 +46014,10 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="68" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P10" s="72" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="71"/>
       <c r="R10" s="14"/>
@@ -46571,13 +46573,13 @@
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -46659,7 +46661,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -46667,7 +46669,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -46712,7 +46714,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -46924,7 +46926,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -46992,7 +46994,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -47011,7 +47013,7 @@
       <c r="AD8" s="145"/>
       <c r="AE8" s="146"/>
     </row>
-    <row r="9" spans="1:175" ht="16" customHeight="1">
+    <row r="9" spans="1:175" ht="15.95" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -47060,7 +47062,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="15"/>
       <c r="O10" s="144" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
@@ -48190,13 +48192,13 @@
   <sheetViews>
     <sheetView zoomScale="76" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -48278,7 +48280,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -48286,7 +48288,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -48331,7 +48333,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -48543,7 +48545,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -48611,7 +48613,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -48679,7 +48681,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
@@ -49808,13 +49810,13 @@
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -49896,7 +49898,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -49904,7 +49906,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -49949,7 +49951,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -50161,7 +50163,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -50229,7 +50231,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -50297,7 +50299,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
@@ -51426,13 +51428,13 @@
   <sheetViews>
     <sheetView zoomScale="98" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="23" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -51514,7 +51516,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -51522,7 +51524,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -51567,7 +51569,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -51779,7 +51781,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -51847,7 +51849,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -51915,7 +51917,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="144" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
@@ -53046,18 +53048,18 @@
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="31" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="31" width="4.125" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:173" s="80" customFormat="1" ht="17">
+    <row r="1" spans="1:173" s="80" customFormat="1" ht="17.25">
       <c r="A1" s="155" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="155"/>
       <c r="C1" s="155"/>
@@ -53090,7 +53092,7 @@
       <c r="AD1" s="79"/>
       <c r="AE1" s="79"/>
     </row>
-    <row r="2" spans="1:173" ht="17">
+    <row r="2" spans="1:173" ht="17.25">
       <c r="A2" s="77"/>
       <c r="B2" s="77"/>
       <c r="C2" s="51"/>
@@ -53164,7 +53166,7 @@
     </row>
     <row r="4" spans="1:173" ht="14.25" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -53180,7 +53182,7 @@
       <c r="M4" s="66"/>
       <c r="N4" s="66"/>
       <c r="O4" s="67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -53217,7 +53219,7 @@
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
@@ -53397,7 +53399,7 @@
         <v>1</v>
       </c>
       <c r="P6" s="70" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q6" s="70"/>
       <c r="R6" s="11"/>
@@ -53432,7 +53434,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="68"/>
       <c r="P7" s="71" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="71"/>
       <c r="R7" s="14"/>
@@ -53467,7 +53469,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="68"/>
       <c r="P8" s="71" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q8" s="71"/>
       <c r="R8" s="14"/>
@@ -53993,16 +53995,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{584B59B0-6CC9-BE4F-B4C4-0136018ABA3F}">
   <dimension ref="A1:FS63"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="30" width="4.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="12.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="30" width="4.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="12.125" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
@@ -54083,7 +54085,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -54091,7 +54093,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -54136,7 +54138,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -54332,7 +54334,7 @@
       <c r="AD5" s="11"/>
       <c r="AE5" s="12"/>
     </row>
-    <row r="6" spans="1:175" ht="17" customHeight="1">
+    <row r="6" spans="1:175" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="13"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>
@@ -54348,7 +54350,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -54400,7 +54402,7 @@
       <c r="AD7" s="142"/>
       <c r="AE7" s="143"/>
     </row>
-    <row r="8" spans="1:175" ht="20" customHeight="1">
+    <row r="8" spans="1:175" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -54416,7 +54418,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -55612,14 +55614,14 @@
       <selection activeCell="O8" sqref="O8:AI9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="13" width="4.1640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="1" customWidth="1"/>
-    <col min="15" max="30" width="4.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="3.83203125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="13" width="4.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="30" width="4.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="3.875" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
@@ -55704,7 +55706,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -55712,7 +55714,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -55761,7 +55763,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -55974,7 +55976,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="144" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="P6" s="145"/>
       <c r="Q6" s="145"/>
@@ -56050,7 +56052,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -57246,11 +57248,11 @@
       <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="19.5" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -57332,7 +57334,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -57340,7 +57342,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -57385,7 +57387,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -57597,7 +57599,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -57616,7 +57618,7 @@
       <c r="AD6" s="142"/>
       <c r="AE6" s="143"/>
     </row>
-    <row r="7" spans="1:175" ht="14">
+    <row r="7" spans="1:175" ht="12">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -57665,7 +57667,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -57733,7 +57735,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="144" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
@@ -58860,13 +58862,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75CDDF62-F74A-CB4E-B750-E00C69F2F32C}">
   <dimension ref="A1:FS63"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScale="88" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="19.5" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -58948,7 +58950,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -58956,7 +58958,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -59001,7 +59003,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -59213,7 +59215,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -60472,12 +60474,12 @@
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="83" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="30" width="4.1640625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.33203125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="30" width="4.125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.375" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
   </cols>
@@ -60558,7 +60560,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -60566,7 +60568,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -60611,7 +60613,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -60823,7 +60825,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -60842,7 +60844,7 @@
       <c r="AD6" s="142"/>
       <c r="AE6" s="143"/>
     </row>
-    <row r="7" spans="1:175" ht="22" customHeight="1">
+    <row r="7" spans="1:175" ht="21.95" customHeight="1">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -60891,7 +60893,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -60910,7 +60912,7 @@
       <c r="AD8" s="145"/>
       <c r="AE8" s="146"/>
     </row>
-    <row r="9" spans="1:175" ht="19" customHeight="1">
+    <row r="9" spans="1:175" ht="18.95" customHeight="1">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
@@ -60959,7 +60961,7 @@
       <c r="M10" s="14"/>
       <c r="N10" s="14"/>
       <c r="O10" s="144" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="P10" s="145"/>
       <c r="Q10" s="145"/>
@@ -60978,7 +60980,7 @@
       <c r="AD10" s="145"/>
       <c r="AE10" s="146"/>
     </row>
-    <row r="11" spans="1:175" ht="20" customHeight="1">
+    <row r="11" spans="1:175" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -62086,13 +62088,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9E935A4-CB99-EB41-9235-04475F20BFD1}">
   <dimension ref="A1:FS63"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="30" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -62174,7 +62176,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -62182,7 +62184,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -62227,7 +62229,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -62439,7 +62441,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
@@ -62507,7 +62509,7 @@
       <c r="M8" s="14"/>
       <c r="N8" s="14"/>
       <c r="O8" s="144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P8" s="145"/>
       <c r="Q8" s="145"/>
@@ -63703,11 +63705,11 @@
       <selection activeCell="O8" sqref="O8:AE9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
-    <col min="1" max="4" width="4.1640625" style="1" customWidth="1"/>
-    <col min="5" max="6" width="4.1640625" style="21" customWidth="1"/>
-    <col min="7" max="30" width="4.1640625" style="1" customWidth="1"/>
+    <col min="1" max="4" width="4.125" style="1" customWidth="1"/>
+    <col min="5" max="6" width="4.125" style="21" customWidth="1"/>
+    <col min="7" max="30" width="4.125" style="1" customWidth="1"/>
     <col min="31" max="31" width="30" style="1" customWidth="1"/>
     <col min="32" max="35" width="4" style="1" customWidth="1"/>
     <col min="36" max="16384" width="9" style="1"/>
@@ -63789,7 +63791,7 @@
     </row>
     <row r="3" spans="1:175" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -63797,7 +63799,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="4"/>
       <c r="G3" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
@@ -63842,7 +63844,7 @@
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="41" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
@@ -64054,7 +64056,7 @@
       <c r="M6" s="14"/>
       <c r="N6" s="14"/>
       <c r="O6" s="141" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P6" s="142"/>
       <c r="Q6" s="142"/>
